--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_LDMI.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_LDMI.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="selection_rate_0.25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="selection_rate_0.5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -767,4 +768,354 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.24483775811208</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1740355367272059</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.932448377581121</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9281813335562912</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>93.83480825958702</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1872880208246291</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9383480825958703</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9372743339090885</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.16224188790561</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1239356168014638</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9516224188790561</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9510027899981959</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.18289085545723</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2627950461991228</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9218289085545722</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9184634949028275</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.83498127146429</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4245565317280125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8383498127146428</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8259390028588088</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.41887905604719</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1900890630184828</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.924188790560472</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.923910919504437</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>90.79646017699115</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2353112180503862</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9079646017699116</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9067665021176745</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>92.12389380530973</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2063448147263747</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9212389380530974</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9202466160101597</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.79351032448378</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2533104644273408</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8979351032448377</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8957664526624649</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.47787610619469</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2121506480718381</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9247787610619469</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9198887236721394</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.54277286135694</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6067832952201873</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8454277286135692</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8345366211482315</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>86.047197640118</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5616877208570561</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8604719764011799</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8420143953377532</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.75811209439527</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.06785787965518467</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9775811209439528</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9775744518137544</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.64011799410029</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06497714611909941</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.976401179941003</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9769350639690482</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.31008053702887</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1257424944213502</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9531008053702887</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9490894644327976</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.81124404190349</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2464576997898489</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9181124404190348</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9138393443929114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_LDMI.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_LDMI.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="selection_rate_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="selection_rate_0.75" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="selection_rate_0.5" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1118,4 +1119,354 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.44837758112094</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1979445388671593</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9244837758112094</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9218745911939873</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>91.56376785266309</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.233030643987172</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9156376785266309</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9113575856674995</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1258489000038632</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9578171091445429</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9571330899949529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.68141592920354</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2657004489626463</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9168141592920354</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9130508851465706</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.04181697073504</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3727397145858656</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8404181697073504</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8336485743099245</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.50147492625368</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2437186026324829</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9050147492625369</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8969747754465335</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>90.73746312684366</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2250299347758604</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9073746312684365</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8994157607789649</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.35693215339234</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2207381325628376</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9135693215339232</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9107798266820396</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.61946902654867</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2340848482601965</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9061946902654867</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9074211354766122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.48082595870207</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1759317360442462</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9348082595870206</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9334787533986045</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.75221238938053</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5115651757346618</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8575221238938052</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8500421963221934</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.5693215339233</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6057270371393921</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.835693215339233</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8192627825665602</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.43362831858407</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.07523433325523002</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9743362831858408</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9742519698857388</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.78761061946902</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05182855185833736</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9778761061946902</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9782879278239349</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.45722713864306</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1222750650574881</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9545722713864307</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9517125629833121</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.48088362932782</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2440931775818293</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9148088362932782</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9105794945118287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_LDMI.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_LDMI.xlsx
@@ -10,6 +10,12 @@
     <sheet name="selection_rate_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="selection_rate_0.75" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="selection_rate_0.5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="selection_rate_0.4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="selection_rate_0.3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="selection_rate_0.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="selection_rate_0.2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="selection_rate_0.15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="selection_rate_0.1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1475,2104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.88790560471976</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2055510436025846</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9188790560471976</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9168584601861607</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>90.47214941305721</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2434641440982887</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.904721494130572</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9031964357401259</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.51327433628319</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1596689397757776</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9451327433628318</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9441316709511385</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.44542772861357</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3040938087336448</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9144542772861357</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9096476970376102</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.30973451327434</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3524018082496089</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8530973451327434</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8496847868410938</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.20718172302529</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2452672927329937</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9020718172302529</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9005964570878339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>90.8259587020649</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2496313109787783</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9082595870206489</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9081925905857183</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.61946902654867</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2550353389103596</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9061946902654867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9042012476834195</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.64601769911505</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2624525395280216</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8964601769911503</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8915285582157872</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.24188790560473</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2324221694938387</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9224188790560472</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9193416289633347</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.16224188790561</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5537250213871934</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8516224188790561</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8432637902285727</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5218554090659988</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.821029118586867</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>98.37758112094396</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.06050144377812405</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9837758112094395</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9838114134908847</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.28318584070796</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0901337466643478</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9628318584070797</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9638153145480919</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.69026548672566</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1677658939477169</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9469026548672567</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.941431445017972</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.00104095479487</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2602646607298185</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.910010409547949</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9067153743443074</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.88790560471976</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2450768823298858</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9188790560471976</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9146888687510989</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.58407079646017</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3148119222547393</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8858407079646018</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8819267606924333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.39528023598821</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.17308926253354</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.943952802359882</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9425058252474082</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.8259587020649</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2987590113019299</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9082595870206489</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9055307365226539</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.71750620680109</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.415057276582229</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8371750620680111</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8268909204193253</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.41227865292953</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2726875498599838</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8941227865292951</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8909644082527922</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>90.79646017699115</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2468097650348985</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9079646017699116</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9049648891275535</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.74041297935102</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.235655271569461</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9174041297935103</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9167825892088262</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.66683967854394</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3408075243642088</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8666683967854393</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8611944381722429</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.50737463126845</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2154260043833346</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9250737463126842</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9226393436716058</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.57522123893804</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5271173501731633</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8557522123893806</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8475263387545482</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.36283185840708</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6235931464160482</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8336283185840708</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8181465147259466</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.52212389380531</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.07778683567194093</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9752212389380531</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9752814759805311</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>89.41037552227961</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2625315682294361</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8941037552227961</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8770127785342805</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.66371681415929</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1248478995604122</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9566371681415931</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9553699930798938</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.13789046618049</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2916038180176808</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9013789046618049</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8960950587427425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.76991150442478</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2550311385982544</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9176991150442477</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9152660048200495</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>82.31974325037413</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4790725217899308</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8231974325037413</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8147206153375961</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.62536873156343</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2150361512239518</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9262536873156343</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9215355401869374</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>87.55646675144249</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4069726961121584</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8755646675144249</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8707897858866296</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.65781710914455</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4090478995931335</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8365781710914455</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8296063284913778</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.7405859912283</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2061618116325311</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.917405859912283</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9166617933525265</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89.38053097345133</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2804641794665561</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8938053097345133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8926863475844854</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.64896755162242</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2340096993953921</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9064896755162242</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9065535980900226</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.07701623716468</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.458144954603631</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8307701623716468</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.824762500889112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.92382287044006</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1910897571627478</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9392382287044005</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9380643985194894</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>78.03527712177441</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8743307010949743</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.780352771217744</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7642714366009475</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.59587020648968</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7068669116551367</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8259587020648966</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8031477280220649</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.55162241887906</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.08648003491653071</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9755162241887906</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9754837728916173</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.09144542772862</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2340132804430292</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9109144542772862</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8999572952807252</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.30973451327434</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1345897730493258</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9530973451327434</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9518048425982766</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>88.75227871060015</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.344754100715819</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8875227871060015</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8816874659034573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.94690265486726</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2444289460739431</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9194690265486726</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9169448086890688</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>87.5644252977967</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3570984849512266</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8756442529779669</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8746949688992647</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>89.77456552392321</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3036801774889076</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8977456552392322</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8939250010459329</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>87.43535843735671</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4232853798186019</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8743535843735672</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8709239028881764</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>80.79879583733423</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4970576574734878</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8079879583733423</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7989537316903522</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.41798804487928</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3529858373871927</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8941798804487927</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8875960499849658</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>84.07269959082691</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4270004351002474</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.840726995908269</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8359025179183777</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>87.19937023676675</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3551892153802328</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8719937023676675</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8717615888605668</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.09231048711494</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5070243704210347</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8109231048711495</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8049369895623857</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.24188790560473</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2494666303356401</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9224188790560472</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9187708683078297</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79.95640100692913</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7455521112851178</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7995640100692912</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7844283750376133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80.68607859929584</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7493768756277859</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8068607859929584</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7906736802009457</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.13864306784662</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09947091562929321</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9713864306784661</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9713973368823716</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.33038348082596</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1759353901929596</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9233038348082596</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9208621018622741</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.60228894713622</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1657748327291907</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9460228894713623</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9443808180598502</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.75053994123364</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3768884839929908</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8775053994123364</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8724101826593318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.71350098184242</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2645144612664202</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.907135009818424</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9052516253731551</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>85.40636164672705</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4054146570745313</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8540636164672705</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8516254540848054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>89.82889125338454</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2788064116757596</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8982889125338455</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.897077649148722</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>75.60203807991419</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7227370531919102</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7560203807991418</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7474888668371423</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.94794072613084</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4435006997548044</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8194794072613085</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.81155410485468</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.03431690585559</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3567502915199535</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8703431690585559</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8695205659290164</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82.20192216195642</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4483272846632947</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8220192216195642</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8173155463668973</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.57990121021808</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4220304850954563</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8657990121021808</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8561009961211955</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>76.81606242268532</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5937269763012106</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7681606242268532</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7669305853059517</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.62931340236507</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.320226768682672</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8862931340236507</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8840372542920466</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>75.63551587816502</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7670363522173527</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7563551587816504</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7485554238806096</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>77.28821183574253</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7966305266988154</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7728821183574253</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7572154663098688</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.63282554347356</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1745389916410204</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9463282554347355</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9462731093978644</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>93.98281992058756</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2076010503251988</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9398281992058755</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9401076369366266</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.5429458732342</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2010038395259471</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.945429458732342</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9442299632397342</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>85.38950452281884</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4268563899756231</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8538950452281883</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8495522832052212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>82.40010726736391</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4911220558298131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.824001072673639</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8172312065276135</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>72.22043443282382</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7035338891049225</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7222043443282381</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7163032806612405</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>84.19415392866719</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3872841803745056</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8419415392866721</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.838347636763487</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>69.54653586968746</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7982305152962604</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6954653586968746</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6860602559427765</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.03025977733371</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9685460478067398</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5803025977733371</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5770713701341939</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>73.03618543413005</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6820104703307152</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7303618543413005</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7265325425733643</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>74.71344907827923</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.554767003034552</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7471344907827923</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7430179829527622</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>76.42107630688847</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6068439445768793</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7642107630688846</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7582303467980132</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>65.45644858519537</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8494372814893723</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6545644858519537</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6517757415447432</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.21078902066627</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.353120508727928</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8721078902066626</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8685406943329834</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>73.25642955388886</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7931297816025714</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7325642955388887</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7219803948052788</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>69.80458308462876</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8591597211857638</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6980458308462876</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6863445204296238</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>83.40651735741659</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4678637069960435</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8340651735741659</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8325005987957335</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>87.92238687185875</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2991867882218988</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8792238687185876</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8790070290040015</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>85.79347572210833</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.406510690972209</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8579347572210831</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.854806273704582</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>76.22752215272912</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6147164390366783</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7622752215272913</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7571833249980263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_LDMI.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_LDMI.xlsx
@@ -10,6 +10,9 @@
     <sheet name="selection_rate_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="selection_rate_0.75" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="selection_rate_0.5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="selection_rate_0.4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="selection_rate_0.3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="selection_rate_0.25" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1472,1054 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.88790560471976</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.228871120872039</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9188790560471976</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9146834769310284</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>91.18063305045891</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2395019683977201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9118063305045891</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9099451646853958</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.53982300884955</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1684256768393728</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9353982300884957</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.93421343768482</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.90855457227138</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.40446176254142</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8890855457227138</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8809225273275733</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.89970501474926</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3388255846657557</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8589970501474926</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8579639243278955</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.18289085545723</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2142481063550804</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9218289085545722</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9211921054531294</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>91.20943952802359</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2447876775617866</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9120943952802361</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9109655798935081</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.23893805309734</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2346196139920115</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9123893805309734</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9092526740516901</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.67551622418878</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2756812733297314</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8967551622418879</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8950707710097253</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.15044247787611</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2447368932136063</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.911504424778761</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9116201904254984</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.51622418879056</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5132249683871729</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8551622418879056</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8489085431692607</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.77581120943952</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4775599237589631</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8377581120943953</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8283740596214375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.40412979351032</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.08677003204317467</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9740412979351032</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9740886944709143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.16519174041298</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09865046811200955</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9616519174041297</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9625506139199954</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.84070796460176</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1114970472524874</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9584070796460177</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9565082763246588</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.03839421909646</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2587908078214888</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9103839421909646</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9077506692864354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.88495575221239</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2408316633484598</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9088495575221239</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9051395011093326</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.40742566977224</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3078796009130504</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8840742566977223</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.882066634328759</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.48082595870207</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1755684346811904</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9348082595870206</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9339871167561649</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.79056047197641</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4004446681336655</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.887905604719764</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8823804370563334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.69321533923303</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3627412350341425</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8569321533923304</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8556969484723522</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.88790560471976</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2172021017700899</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9188790560471976</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9190837774388212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89.05604719764013</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3518139811426712</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8905604719764012</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8863934001962785</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.3834808259587</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.251646894486233</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9038348082595871</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9032827032790752</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.22418879056048</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3256494106026366</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8622418879056047</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8619773348463753</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.32482979956573</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.263359462779772</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9032482979956574</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9036452003687637</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.36578171091445</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5655697985979108</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8436578171091446</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8397875493745584</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.48082595870207</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6000740241647388</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8348082595870207</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8183926537184243</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.51917404129793</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1200468607787722</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9651917404129794</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9650826601121588</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.79941002949852</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.223358645040859</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9179941002949853</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.916692908753555</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.07374631268436</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1418939906429841</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9507374631268437</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9476627464179286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.75815823089587</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3032053848078118</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8975815823089589</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8947514381485921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.20943952802359</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2703000176955054</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9120943952802361</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9081268741869499</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.52802359882006</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2820956846563301</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8952802359882005</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8940111695928443</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.47787610619469</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2000550830111024</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9247787610619469</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9221043300475318</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>82.56801529424995</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5397289336193353</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8256801529424995</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8180748780024395</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.63144144845543</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4069796413202614</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8463144144845544</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.842614931956463</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.62241887905604</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2667141409319204</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9162241887905604</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.912660334558311</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.31858407079646</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3152758062118665</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8831858407079647</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.881764627930124</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2871181226054129</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8962641948695133</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>87.81710914454277</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3714492890295029</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8781710914454278</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8755516952595771</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.85545722713864</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2763428557770869</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9085545722713864</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.904872384011014</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.60766961651917</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5485254200524651</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8660766961651918</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8582990787670246</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.48082595870207</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5744578237528912</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8348082595870207</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8226135495230118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.05014749262537</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09716984622476352</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9705014749262537</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9705464401538798</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.35693215339234</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2935345106940076</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9135693215339232</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9062770876915553</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.22123893805311</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1403179586246552</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.952212389380531</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.950853439817162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.51634529710465</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3246710089471403</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8951634529710464</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8909756677578268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_LDMI.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubCM_pcc_by_LDMI.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="selection_rate_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="selection_rate_0.75" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="selection_rate_0.5" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,16 +469,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.19174041297936</v>
+        <v>95.07374631268438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1271279276564504</v>
+        <v>0.1300536271567883</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9519174041297935</v>
+        <v>0.9507374631268437</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9513460261412969</v>
+        <v>0.9500291346049352</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +488,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.80548274639054</v>
+        <v>95.33957906210262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2139830125337918</v>
+        <v>0.1452227042164282</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9380548274639053</v>
+        <v>0.9533957906210262</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9350287612536292</v>
+        <v>0.9513968284430995</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +507,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.43067846607669</v>
+        <v>97.02064896755162</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1173371776396986</v>
+        <v>0.1135478590073035</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9643067846607669</v>
+        <v>0.9702064896755163</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9635650014518552</v>
+        <v>0.9692821486700227</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +526,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.62536873156343</v>
+        <v>92.12389380530973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1975008682830472</v>
+        <v>0.2159949856679305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9262536873156343</v>
+        <v>0.9212389380530974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9232192445504394</v>
+        <v>0.9139113261997851</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +545,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.1094905665274</v>
+        <v>87.16814159292036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.319736725683227</v>
+        <v>0.3901058190783563</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8710949056652739</v>
+        <v>0.8716814159292035</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8555174369594887</v>
+        <v>0.8550243055404059</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +564,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.59292035398229</v>
+        <v>91.50442477876106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2175957252028942</v>
+        <v>0.192594334956569</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9159292035398231</v>
+        <v>0.9150442477876106</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9102676130535082</v>
+        <v>0.9110767845971097</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +583,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.79941002949853</v>
+        <v>90.53097345132743</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2016036388022864</v>
+        <v>0.2462685835169395</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9179941002949853</v>
+        <v>0.9053097345132743</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9176964568479618</v>
+        <v>0.8984729270495831</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +602,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.68436578171091</v>
+        <v>92.33038348082596</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1814967050506311</v>
+        <v>0.1849343535285395</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9268436578171091</v>
+        <v>0.9233038348082596</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9254022102305461</v>
+        <v>0.9226146733590346</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +621,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.00884955752213</v>
+        <v>92.56637168141592</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1941999632491691</v>
+        <v>0.1942724515431716</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9300884955752213</v>
+        <v>0.9256637168141593</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9287578338498849</v>
+        <v>0.9247371680000255</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +640,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.74041297935102</v>
+        <v>91.74093201498283</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2295103326969183</v>
+        <v>0.2025602227069309</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9174041297935103</v>
+        <v>0.9174093201498282</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9138406059290833</v>
+        <v>0.9143394128693778</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +659,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.952802359882</v>
+        <v>85.10324483775811</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6045072554532454</v>
+        <v>0.5199917072905615</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8395280235988201</v>
+        <v>0.8510324483775811</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8278221861285108</v>
+        <v>0.8404786170260519</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +678,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.86725663716814</v>
+        <v>84.54277286135694</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5689173824260555</v>
+        <v>0.556503503304945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8486725663716814</v>
+        <v>0.8454277286135692</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8329009528912664</v>
+        <v>0.8321538599187024</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +697,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.31858407079646</v>
+        <v>98.55457227138643</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05150390450154798</v>
+        <v>0.04239255501555968</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9831858407079647</v>
+        <v>0.9855457227138643</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9831921439089848</v>
+        <v>0.9855765102742314</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +716,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.84660766961652</v>
+        <v>99.02654867256638</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0546677032038436</v>
+        <v>0.03330367029520478</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9784660766961653</v>
+        <v>0.9902654867256636</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789026017746766</v>
+        <v>0.9903398605600364</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +735,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.45722713864306</v>
+        <v>95.39823008849558</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1179014699739431</v>
+        <v>0.1118304368502853</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9545722713864306</v>
+        <v>0.9539823008849557</v>
       </c>
       <c r="E16" t="n">
-        <v>0.952196262930465</v>
+        <v>0.9511344787883609</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +754,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.4287465001139</v>
+        <v>92.5349642586297</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2265059861571166</v>
+        <v>0.2186384542757009</v>
       </c>
       <c r="D17" t="n">
-        <v>0.924287465001139</v>
+        <v>0.9253496425862966</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9199770225267732</v>
+        <v>0.9207045357267175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.33038348082596</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2103204958645316</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9233038348082596</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9205367804957685</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>94.1599840829073</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1566759074197914</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9415998408290729</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9406963601314379</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.84070796460176</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1235806995413744</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9584070796460177</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.957416685449652</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.85250737463127</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2575860677881186</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8985250737463127</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8905392318688172</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.59587020648968</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5188973067211918</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8259587020648966</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8107956624688943</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.52802359882006</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2847746359727655</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8952802359882005</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8907941498905332</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>90.64896755162242</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.253703654918354</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9064896755162242</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9060901066211426</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.94690265486726</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2064614456156657</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9194690265486726</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9180786146964784</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>91.03244837758112</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2483524715377522</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9103244837758112</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9079098712238217</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.70223790863243</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3328002502911355</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8870223790863243</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8773296150122631</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.83775811209439</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4794758432573872</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8483775811209439</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8470473557763338</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.27728613569322</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6196578748058528</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8427728613569322</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8245006077101747</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.87020648967551</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1091816472760305</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9587020648967552</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9572455656215239</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.15339233038348</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1723361372609058</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9215339233038348</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9162991749504108</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.60176991150442</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1217467021760778</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9460176991150442</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9431947097486786</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.55856307868868</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2730367426964623</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9055856307868869</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.900564966111062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.39840310037285</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3471695305081084</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8539840310037284</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8520242149140623</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>87.07999204145365</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3052701964101289</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8707999204145365</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8679643428898125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>90.35398230088495</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2394678891330841</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9035398230088496</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9044309605134849</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>84.66076696165192</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4087324721796904</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8466076696165192</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.837556957470634</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.71108746615455</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5065056698202777</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8171108746615456</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8067031296803296</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>82.62554174344068</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5140494583950688</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.826255417434407</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8181503128057613</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.25073746312685</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3698248206016918</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8525073746312686</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8411527758199038</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>87.1976401179941</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3354480035894085</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8719764011799409</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8634041444642513</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.44022007110787</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2593185144010931</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8944022007110789</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8947342224329577</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.96165191740413</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3180424888751683</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8696165191740413</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8690139350081481</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>80.47197640117994</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4825668052614976</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8047197640117995</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8000198260332997</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80.61998806218047</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5582738165821259</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8061998806218046</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7978320001655794</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>86.01787212692152</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5356694173635332</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8601787212692151</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8432643360270132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>86.78466076696165</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4333905118537739</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8678466076696164</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8511758613824292</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.92625368731564</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1250102177393274</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9492625368731563</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9486141725044994</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>85.96671828187672</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3825826541809319</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8596671828187671</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8530694128074778</v>
       </c>
     </row>
   </sheetData>
